--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H2">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J2">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.384600333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N2">
-        <v>4.153801</v>
+        <v>15.975551</v>
       </c>
       <c r="O2">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P2">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q2">
-        <v>10.90523222402889</v>
+        <v>148.1229817667377</v>
       </c>
       <c r="R2">
-        <v>98.14709001625999</v>
+        <v>1333.106835900639</v>
       </c>
       <c r="S2">
-        <v>7.727838428794453E-05</v>
+        <v>0.001173314836479475</v>
       </c>
       <c r="T2">
-        <v>7.727838428794455E-05</v>
+        <v>0.001173314836479475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H3">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J3">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>198.643795</v>
       </c>
       <c r="O3">
-        <v>0.7187194584438009</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P3">
-        <v>0.718719458443801</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q3">
-        <v>521.5119150718556</v>
+        <v>1841.796331460528</v>
       </c>
       <c r="R3">
-        <v>4693.6072356467</v>
+        <v>16576.16698314475</v>
       </c>
       <c r="S3">
-        <v>0.003695620355049671</v>
+        <v>0.01458927531501652</v>
       </c>
       <c r="T3">
-        <v>0.003695620355049672</v>
+        <v>0.01458927531501652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H4">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J4">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2096873333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N4">
-        <v>0.629062</v>
+        <v>50.81054</v>
       </c>
       <c r="O4">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P4">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q4">
-        <v>1.651515610235555</v>
+        <v>471.1079254780067</v>
       </c>
       <c r="R4">
-        <v>14.86364049212</v>
+        <v>4239.97132930206</v>
       </c>
       <c r="S4">
-        <v>1.170323156476272E-05</v>
+        <v>0.003731749874012723</v>
       </c>
       <c r="T4">
-        <v>1.170323156476273E-05</v>
+        <v>0.003731749874012724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,61 +729,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.876086666666667</v>
+        <v>27.815563</v>
       </c>
       <c r="H5">
-        <v>23.62826</v>
+        <v>83.44668899999999</v>
       </c>
       <c r="I5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="J5">
-        <v>0.005141951162768809</v>
+        <v>0.01951398625693626</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>23.82732666666667</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N5">
-        <v>71.48198000000001</v>
+        <v>0.267498</v>
       </c>
       <c r="O5">
-        <v>0.2586312346383163</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P5">
-        <v>0.2586312346383164</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q5">
-        <v>187.6660898616445</v>
+        <v>2.480202490458</v>
       </c>
       <c r="R5">
-        <v>1688.9948087548</v>
+        <v>22.321822414122</v>
       </c>
       <c r="S5">
-        <v>0.001329869177676823</v>
+        <v>1.964623142754742E-05</v>
       </c>
       <c r="T5">
-        <v>0.001329869177676824</v>
+        <v>1.964623142754743E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.876086666666667</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H6">
-        <v>23.62826</v>
+        <v>4052.669921</v>
       </c>
       <c r="I6">
-        <v>0.005141951162768809</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J6">
-        <v>0.005141951162768809</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04322599999999999</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N6">
-        <v>0.129678</v>
+        <v>15.975551</v>
       </c>
       <c r="O6">
-        <v>0.000469192113109172</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P6">
-        <v>0.0004691921131091722</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q6">
-        <v>0.3404517222533333</v>
+        <v>7193.737223233497</v>
       </c>
       <c r="R6">
-        <v>3.06406550028</v>
+        <v>64743.63500910147</v>
       </c>
       <c r="S6">
-        <v>2.412562931563662E-06</v>
+        <v>0.05698318055091919</v>
       </c>
       <c r="T6">
-        <v>2.412562931563663E-06</v>
+        <v>0.0569831805509192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.876086666666667</v>
+        <v>1350.889973666667</v>
       </c>
       <c r="H7">
-        <v>23.62826</v>
+        <v>4052.669921</v>
       </c>
       <c r="I7">
-        <v>0.005141951162768809</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J7">
-        <v>0.005141951162768809</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4491346666666666</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N7">
-        <v>1.347404</v>
+        <v>198.643795</v>
       </c>
       <c r="O7">
-        <v>0.004875085442185651</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P7">
-        <v>0.004875085442185652</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q7">
-        <v>3.537423559671111</v>
+        <v>89448.63699886559</v>
       </c>
       <c r="R7">
-        <v>31.83681203704</v>
+        <v>805037.7329897903</v>
       </c>
       <c r="S7">
-        <v>2.506745125804381E-05</v>
+        <v>0.7085423993078412</v>
       </c>
       <c r="T7">
-        <v>2.506745125804381E-05</v>
+        <v>0.7085423993078412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>4052.669921</v>
       </c>
       <c r="I8">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J8">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.384600333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N8">
-        <v>4.153801</v>
+        <v>50.81054</v>
       </c>
       <c r="O8">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P8">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q8">
-        <v>1870.442707835525</v>
+        <v>22879.81634752971</v>
       </c>
       <c r="R8">
-        <v>16833.98437051972</v>
+        <v>205918.3471277674</v>
       </c>
       <c r="S8">
-        <v>0.01325462744811644</v>
+        <v>0.1812360759706944</v>
       </c>
       <c r="T8">
-        <v>0.01325462744811644</v>
+        <v>0.1812360759706944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>4052.669921</v>
       </c>
       <c r="I9">
-        <v>0.8819367491556352</v>
+        <v>0.947715794239517</v>
       </c>
       <c r="J9">
-        <v>0.8819367491556351</v>
+        <v>0.9477157942395171</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.21459833333334</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N9">
-        <v>198.643795</v>
+        <v>0.267498</v>
       </c>
       <c r="O9">
-        <v>0.7187194584438009</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P9">
-        <v>0.718719458443801</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q9">
-        <v>89448.63699886559</v>
+        <v>120.453455391962</v>
       </c>
       <c r="R9">
-        <v>805037.7329897903</v>
+        <v>1084.081098527658</v>
       </c>
       <c r="S9">
-        <v>0.6338651027348244</v>
+        <v>0.0009541384100623373</v>
       </c>
       <c r="T9">
-        <v>0.6338651027348244</v>
+        <v>0.0009541384100623376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,87 +1030,87 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H10">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I10">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J10">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2096873333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N10">
-        <v>0.629062</v>
+        <v>15.975551</v>
       </c>
       <c r="O10">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P10">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q10">
-        <v>283.2645162049002</v>
+        <v>0.3336067811656667</v>
       </c>
       <c r="R10">
-        <v>2549.380645844102</v>
+        <v>3.002461030491</v>
       </c>
       <c r="S10">
-        <v>0.002007313891967147</v>
+        <v>2.642572956762719E-06</v>
       </c>
       <c r="T10">
-        <v>0.002007313891967147</v>
+        <v>2.642572956762719E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H11">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I11">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J11">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.82732666666667</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N11">
-        <v>71.48198000000001</v>
+        <v>198.643795</v>
       </c>
       <c r="O11">
-        <v>0.2586312346383163</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P11">
-        <v>0.2586312346383164</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q11">
-        <v>32188.0966932804</v>
+        <v>4.148145941788333</v>
       </c>
       <c r="R11">
-        <v>289692.8702395236</v>
+        <v>37.333313476095</v>
       </c>
       <c r="S11">
-        <v>0.228096390307025</v>
+        <v>3.285837970131468E-05</v>
       </c>
       <c r="T11">
-        <v>0.2280963903070251</v>
+        <v>3.285837970131468E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H12">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I12">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J12">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04322599999999999</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N12">
-        <v>0.129678</v>
+        <v>50.81054</v>
       </c>
       <c r="O12">
-        <v>0.000469192113109172</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P12">
-        <v>0.0004691921131091722</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q12">
-        <v>58.39357000171533</v>
+        <v>1.061042633126667</v>
       </c>
       <c r="R12">
-        <v>525.5421300154379</v>
+        <v>9.54938369814</v>
       </c>
       <c r="S12">
-        <v>0.0004137977669649663</v>
+        <v>8.404752920416353E-06</v>
       </c>
       <c r="T12">
-        <v>0.0004137977669649664</v>
+        <v>8.404752920416355E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1350.889973666667</v>
+        <v>0.06264699999999999</v>
       </c>
       <c r="H13">
-        <v>4052.669921</v>
+        <v>0.187941</v>
       </c>
       <c r="I13">
-        <v>0.8819367491556352</v>
+        <v>4.394995337819644E-05</v>
       </c>
       <c r="J13">
-        <v>0.8819367491556351</v>
+        <v>4.394995337819645E-05</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4491346666666666</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N13">
-        <v>1.347404</v>
+        <v>0.267498</v>
       </c>
       <c r="O13">
-        <v>0.004875085442185651</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P13">
-        <v>0.004875085442185652</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q13">
-        <v>606.7315180261204</v>
+        <v>0.005585982402</v>
       </c>
       <c r="R13">
-        <v>5460.583662235083</v>
+        <v>0.05027384161800001</v>
       </c>
       <c r="S13">
-        <v>0.004299517006737176</v>
+        <v>4.42477997026903E-08</v>
       </c>
       <c r="T13">
-        <v>0.004299517006737176</v>
+        <v>4.424779970269031E-08</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H14">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I14">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J14">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.384600333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N14">
-        <v>4.153801</v>
+        <v>15.975551</v>
       </c>
       <c r="O14">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P14">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q14">
-        <v>1.073707712888</v>
+        <v>245.2793957111955</v>
       </c>
       <c r="R14">
-        <v>9.663369415991999</v>
+        <v>2207.514561400759</v>
       </c>
       <c r="S14">
-        <v>7.608677701210324E-06</v>
+        <v>0.001942912238452464</v>
       </c>
       <c r="T14">
-        <v>7.608677701210326E-06</v>
+        <v>0.001942912238452465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H15">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I15">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J15">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>198.643795</v>
       </c>
       <c r="O15">
-        <v>0.7187194584438009</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P15">
-        <v>0.718719458443801</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q15">
-        <v>51.34703728196001</v>
+        <v>3049.862255103351</v>
       </c>
       <c r="R15">
-        <v>462.1233355376401</v>
+        <v>27448.76029593016</v>
       </c>
       <c r="S15">
-        <v>0.0003638635104330456</v>
+        <v>0.02415863217476145</v>
       </c>
       <c r="T15">
-        <v>0.0003638635104330457</v>
+        <v>0.02415863217476145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H16">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I16">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J16">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2096873333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N16">
-        <v>0.629062</v>
+        <v>50.81054</v>
       </c>
       <c r="O16">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P16">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q16">
-        <v>0.162604978256</v>
+        <v>780.1157247696513</v>
       </c>
       <c r="R16">
-        <v>1.463444804304</v>
+        <v>7021.041522926861</v>
       </c>
       <c r="S16">
-        <v>1.152277158216961E-06</v>
+        <v>0.006179468865166433</v>
       </c>
       <c r="T16">
-        <v>1.152277158216961E-06</v>
+        <v>0.006179468865166434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.775464</v>
+        <v>46.06026966666667</v>
       </c>
       <c r="H17">
-        <v>2.326392</v>
+        <v>138.180809</v>
       </c>
       <c r="I17">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124644</v>
       </c>
       <c r="J17">
-        <v>0.0005062663966562098</v>
+        <v>0.03231354581124645</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>23.82732666666667</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N17">
-        <v>71.48198000000001</v>
+        <v>0.267498</v>
       </c>
       <c r="O17">
-        <v>0.2586312346383163</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P17">
-        <v>0.2586312346383164</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q17">
-        <v>18.47723404624</v>
+        <v>4.107010005098001</v>
       </c>
       <c r="R17">
-        <v>166.29510641616</v>
+        <v>36.96309004588201</v>
       </c>
       <c r="S17">
-        <v>0.0001309363032230871</v>
+        <v>3.253253286610003E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001309363032230872</v>
+        <v>3.253253286610005E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.775464</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H18">
-        <v>2.326392</v>
+        <v>1.107164</v>
       </c>
       <c r="I18">
-        <v>0.0005062663966562098</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J18">
-        <v>0.0005062663966562098</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04322599999999999</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N18">
-        <v>0.129678</v>
+        <v>15.975551</v>
       </c>
       <c r="O18">
-        <v>0.000469192113109172</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P18">
-        <v>0.0004691921131091722</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q18">
-        <v>0.033520206864</v>
+        <v>1.965283883040445</v>
       </c>
       <c r="R18">
-        <v>0.301681861776</v>
+        <v>17.687554947364</v>
       </c>
       <c r="S18">
-        <v>2.375362004432934E-07</v>
+        <v>1.556744747075539E-05</v>
       </c>
       <c r="T18">
-        <v>2.375362004432935E-07</v>
+        <v>1.556744747075539E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.775464</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H19">
-        <v>2.326392</v>
+        <v>1.107164</v>
       </c>
       <c r="I19">
-        <v>0.0005062663966562098</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J19">
-        <v>0.0005062663966562098</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4491346666666666</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N19">
-        <v>1.347404</v>
+        <v>198.643795</v>
       </c>
       <c r="O19">
-        <v>0.004875085442185651</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P19">
-        <v>0.004875085442185652</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q19">
-        <v>0.348287765152</v>
+        <v>24.43680651637556</v>
       </c>
       <c r="R19">
-        <v>3.134589886368</v>
+        <v>219.93125864738</v>
       </c>
       <c r="S19">
-        <v>2.468091940206475E-06</v>
+        <v>0.000193569338801147</v>
       </c>
       <c r="T19">
-        <v>2.468091940206475E-06</v>
+        <v>0.000193569338801147</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H20">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I20">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J20">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.384600333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N20">
-        <v>4.153801</v>
+        <v>50.81054</v>
       </c>
       <c r="O20">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P20">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q20">
-        <v>234.9957790195395</v>
+        <v>6.250622300951112</v>
       </c>
       <c r="R20">
-        <v>2114.962011175856</v>
+        <v>56.25560070856</v>
       </c>
       <c r="S20">
-        <v>0.001665264319369781</v>
+        <v>4.951255906044904E-05</v>
       </c>
       <c r="T20">
-        <v>0.001665264319369781</v>
+        <v>4.951255906044904E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>169.7210186666667</v>
+        <v>0.3690546666666667</v>
       </c>
       <c r="H21">
-        <v>509.163056</v>
+        <v>1.107164</v>
       </c>
       <c r="I21">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="J21">
-        <v>0.1108034010053267</v>
+        <v>0.0002589100099606658</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>66.21459833333334</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N21">
-        <v>198.643795</v>
+        <v>0.267498</v>
       </c>
       <c r="O21">
-        <v>0.7187194584438009</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P21">
-        <v>0.718719458443801</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q21">
-        <v>11238.0090797375</v>
+        <v>0.03290712840800001</v>
       </c>
       <c r="R21">
-        <v>101142.0817176375</v>
+        <v>0.2961641556720001</v>
       </c>
       <c r="S21">
-        <v>0.07963656036427971</v>
+        <v>2.606646283143615E-07</v>
       </c>
       <c r="T21">
-        <v>0.07963656036427971</v>
+        <v>2.606646283143615E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>169.7210186666667</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H22">
-        <v>509.163056</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I22">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J22">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2096873333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N22">
-        <v>0.629062</v>
+        <v>15.975551</v>
       </c>
       <c r="O22">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P22">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q22">
-        <v>35.58834781483022</v>
+        <v>1.167539418671778</v>
       </c>
       <c r="R22">
-        <v>320.295130333472</v>
+        <v>10.507854768046</v>
       </c>
       <c r="S22">
-        <v>0.0002521917885019993</v>
+        <v>9.248337467709818E-06</v>
       </c>
       <c r="T22">
-        <v>0.0002521917885019993</v>
+        <v>9.24833746770982E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>169.7210186666667</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H23">
-        <v>509.163056</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I23">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J23">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.82732666666667</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N23">
-        <v>71.48198000000001</v>
+        <v>198.643795</v>
       </c>
       <c r="O23">
-        <v>0.2586312346383163</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P23">
-        <v>0.2586312346383164</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q23">
-        <v>4043.998153970098</v>
+        <v>14.51746239845222</v>
       </c>
       <c r="R23">
-        <v>36395.98338573088</v>
+        <v>130.65716158607</v>
       </c>
       <c r="S23">
-        <v>0.0286572204041321</v>
+        <v>0.0001149960243641405</v>
       </c>
       <c r="T23">
-        <v>0.02865722040413211</v>
+        <v>0.0001149960243641405</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>169.7210186666667</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H24">
-        <v>509.163056</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I24">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J24">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04322599999999999</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N24">
-        <v>0.129678</v>
+        <v>50.81054</v>
       </c>
       <c r="O24">
-        <v>0.000469192113109172</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P24">
-        <v>0.0004691921131091722</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q24">
-        <v>7.336360752885332</v>
+        <v>3.713381049204445</v>
       </c>
       <c r="R24">
-        <v>66.027246775968</v>
+        <v>33.42042944284</v>
       </c>
       <c r="S24">
-        <v>5.198808185737219E-05</v>
+        <v>2.941451101352113E-05</v>
       </c>
       <c r="T24">
-        <v>5.19880818573722E-05</v>
+        <v>2.941451101352114E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,790 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>169.7210186666667</v>
+        <v>0.2192486666666666</v>
       </c>
       <c r="H25">
-        <v>509.163056</v>
+        <v>0.6577459999999999</v>
       </c>
       <c r="I25">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="J25">
-        <v>0.1108034010053267</v>
+        <v>0.000153813728961191</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4491346666666666</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N25">
-        <v>1.347404</v>
+        <v>0.267498</v>
       </c>
       <c r="O25">
-        <v>0.004875085442185651</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P25">
-        <v>0.004875085442185652</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q25">
-        <v>76.22759314518044</v>
+        <v>0.019549526612</v>
       </c>
       <c r="R25">
-        <v>686.0483383066239</v>
+        <v>0.175945739508</v>
       </c>
       <c r="S25">
-        <v>0.0005401760471857271</v>
+        <v>1.548561158195696E-07</v>
       </c>
       <c r="T25">
-        <v>0.0005401760471857272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.042591</v>
-      </c>
-      <c r="I26">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J26">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.384600333333333</v>
-      </c>
-      <c r="N26">
-        <v>4.153801</v>
-      </c>
-      <c r="O26">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="P26">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="Q26">
-        <v>0.4811906153767777</v>
-      </c>
-      <c r="R26">
-        <v>4.330715538390999</v>
-      </c>
-      <c r="S26">
-        <v>3.409889173098331E-06</v>
-      </c>
-      <c r="T26">
-        <v>3.409889173098331E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H27">
-        <v>1.042591</v>
-      </c>
-      <c r="I27">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J27">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>66.21459833333334</v>
-      </c>
-      <c r="N27">
-        <v>198.643795</v>
-      </c>
-      <c r="O27">
-        <v>0.7187194584438009</v>
-      </c>
-      <c r="P27">
-        <v>0.718719458443801</v>
-      </c>
-      <c r="Q27">
-        <v>23.01158143031611</v>
-      </c>
-      <c r="R27">
-        <v>207.104232872845</v>
-      </c>
-      <c r="S27">
-        <v>0.0001630683140269995</v>
-      </c>
-      <c r="T27">
-        <v>0.0001630683140269995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H28">
-        <v>1.042591</v>
-      </c>
-      <c r="I28">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J28">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2096873333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.629062</v>
-      </c>
-      <c r="O28">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="P28">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="Q28">
-        <v>0.0728727088491111</v>
-      </c>
-      <c r="R28">
-        <v>0.6558543796419999</v>
-      </c>
-      <c r="S28">
-        <v>5.16402134576881E-07</v>
-      </c>
-      <c r="T28">
-        <v>5.16402134576881E-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H29">
-        <v>1.042591</v>
-      </c>
-      <c r="I29">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J29">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>23.82732666666667</v>
-      </c>
-      <c r="N29">
-        <v>71.48198000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.2586312346383163</v>
-      </c>
-      <c r="P29">
-        <v>0.2586312346383164</v>
-      </c>
-      <c r="Q29">
-        <v>8.280718778908888</v>
-      </c>
-      <c r="R29">
-        <v>74.52646901017999</v>
-      </c>
-      <c r="S29">
-        <v>5.868014131481779E-05</v>
-      </c>
-      <c r="T29">
-        <v>5.868014131481781E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H30">
-        <v>1.042591</v>
-      </c>
-      <c r="I30">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J30">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.04322599999999999</v>
-      </c>
-      <c r="N30">
-        <v>0.129678</v>
-      </c>
-      <c r="O30">
-        <v>0.000469192113109172</v>
-      </c>
-      <c r="P30">
-        <v>0.0004691921131091722</v>
-      </c>
-      <c r="Q30">
-        <v>0.01502234618866666</v>
-      </c>
-      <c r="R30">
-        <v>0.135201115698</v>
-      </c>
-      <c r="S30">
-        <v>1.064537295332745E-07</v>
-      </c>
-      <c r="T30">
-        <v>1.064537295332746E-07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.3475303333333333</v>
-      </c>
-      <c r="H31">
-        <v>1.042591</v>
-      </c>
-      <c r="I31">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="J31">
-        <v>0.0002268872953295035</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4491346666666666</v>
-      </c>
-      <c r="N31">
-        <v>1.347404</v>
-      </c>
-      <c r="O31">
-        <v>0.004875085442185651</v>
-      </c>
-      <c r="P31">
-        <v>0.004875085442185652</v>
-      </c>
-      <c r="Q31">
-        <v>0.1560879204182222</v>
-      </c>
-      <c r="R31">
-        <v>1.404791283764</v>
-      </c>
-      <c r="S31">
-        <v>1.106094950477739E-06</v>
-      </c>
-      <c r="T31">
-        <v>1.106094950477739E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.121057</v>
-      </c>
-      <c r="H32">
-        <v>6.363171</v>
-      </c>
-      <c r="I32">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J32">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.384600333333333</v>
-      </c>
-      <c r="N32">
-        <v>4.153801</v>
-      </c>
-      <c r="O32">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="P32">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="Q32">
-        <v>2.936816229219</v>
-      </c>
-      <c r="R32">
-        <v>26.431346062971</v>
-      </c>
-      <c r="S32">
-        <v>2.08113324395408E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.08113324395408E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.121057</v>
-      </c>
-      <c r="H33">
-        <v>6.363171</v>
-      </c>
-      <c r="I33">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J33">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>66.21459833333334</v>
-      </c>
-      <c r="N33">
-        <v>198.643795</v>
-      </c>
-      <c r="O33">
-        <v>0.7187194584438009</v>
-      </c>
-      <c r="P33">
-        <v>0.718719458443801</v>
-      </c>
-      <c r="Q33">
-        <v>140.444937297105</v>
-      </c>
-      <c r="R33">
-        <v>1264.004435673945</v>
-      </c>
-      <c r="S33">
-        <v>0.0009952431651870164</v>
-      </c>
-      <c r="T33">
-        <v>0.0009952431651870164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.121057</v>
-      </c>
-      <c r="H34">
-        <v>6.363171</v>
-      </c>
-      <c r="I34">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J34">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.2096873333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.629062</v>
-      </c>
-      <c r="O34">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="P34">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="Q34">
-        <v>0.444758786178</v>
-      </c>
-      <c r="R34">
-        <v>4.002829075602</v>
-      </c>
-      <c r="S34">
-        <v>3.151720173181724E-06</v>
-      </c>
-      <c r="T34">
-        <v>3.151720173181724E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.121057</v>
-      </c>
-      <c r="H35">
-        <v>6.363171</v>
-      </c>
-      <c r="I35">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J35">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.82732666666667</v>
-      </c>
-      <c r="N35">
-        <v>71.48198000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.2586312346383163</v>
-      </c>
-      <c r="P35">
-        <v>0.2586312346383164</v>
-      </c>
-      <c r="Q35">
-        <v>50.53911801762001</v>
-      </c>
-      <c r="R35">
-        <v>454.8520621585801</v>
-      </c>
-      <c r="S35">
-        <v>0.0003581383049444609</v>
-      </c>
-      <c r="T35">
-        <v>0.000358138304944461</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.121057</v>
-      </c>
-      <c r="H36">
-        <v>6.363171</v>
-      </c>
-      <c r="I36">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J36">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04322599999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.129678</v>
-      </c>
-      <c r="O36">
-        <v>0.000469192113109172</v>
-      </c>
-      <c r="P36">
-        <v>0.0004691921131091722</v>
-      </c>
-      <c r="Q36">
-        <v>0.09168480988199998</v>
-      </c>
-      <c r="R36">
-        <v>0.825163288938</v>
-      </c>
-      <c r="S36">
-        <v>6.497114252933089E-07</v>
-      </c>
-      <c r="T36">
-        <v>6.49711425293309E-07</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.121057</v>
-      </c>
-      <c r="H37">
-        <v>6.363171</v>
-      </c>
-      <c r="I37">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="J37">
-        <v>0.001384744984283513</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4491346666666666</v>
-      </c>
-      <c r="N37">
-        <v>1.347404</v>
-      </c>
-      <c r="O37">
-        <v>0.004875085442185651</v>
-      </c>
-      <c r="P37">
-        <v>0.004875085442185652</v>
-      </c>
-      <c r="Q37">
-        <v>0.952640228676</v>
-      </c>
-      <c r="R37">
-        <v>8.573762058084</v>
-      </c>
-      <c r="S37">
-        <v>6.750750114020155E-06</v>
-      </c>
-      <c r="T37">
-        <v>6.750750114020155E-06</v>
+        <v>1.548561158195697E-07</v>
       </c>
     </row>
   </sheetData>
